--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3113045.779344984</v>
+        <v>3111158.197828581</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>119.0805886067736</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>367.121554986546</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>361.2308869585275</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112263</v>
       </c>
       <c r="S7" t="n">
-        <v>78.9700292157106</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>361.9137890538188</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>58.98352199381085</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.6062016001393</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>68.53751245308879</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>94.16481274941266</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>114.7297790606524</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896917</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467366</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>127.7178027211458</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>93.87916681139897</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2770,13 +2770,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>152.6276470398218</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>91.82471917435535</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>18.66111384519169</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571489</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2323.103882821189</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2576.865668183098</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2323.103882821189</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2323.103882821189</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2323.103882821189</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.103882821189</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2323.103882821189</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2423.485734520778</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>2054.523217580367</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>1696.257518973616</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E5" t="n">
-        <v>1310.469266375372</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>899.4833615857644</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>2423.485734520778</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.6767897220518</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>393.6767897220518</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220518</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220518</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220518</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>648.3612779279387</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>648.3612779279387</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>648.3612779279387</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>393.6767897220518</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>393.6767897220518</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>393.6767897220518</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.6767897220518</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1293.182375355301</v>
+        <v>1111.918385033062</v>
       </c>
       <c r="C8" t="n">
-        <v>924.2198584148889</v>
+        <v>1111.918385033062</v>
       </c>
       <c r="D8" t="n">
-        <v>924.2198584148889</v>
+        <v>753.6526864263114</v>
       </c>
       <c r="E8" t="n">
-        <v>538.4316058166446</v>
+        <v>753.6526864263114</v>
       </c>
       <c r="F8" t="n">
-        <v>127.445701027037</v>
+        <v>746.707185677108</v>
       </c>
       <c r="G8" t="n">
-        <v>113.5222969656279</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>113.5222969656279</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628378</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628378</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>1498.518225097184</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.782215419422</v>
+        <v>1498.518225097184</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.9798268587602</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1429.686459999226</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1205.901044788732</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>916.7724060022904</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>916.7724060022904</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>916.7724060022904</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>916.7724060022904</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.9798268587602</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028581</v>
+        <v>415.5090525528012</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028581</v>
+        <v>415.5090525528012</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028581</v>
+        <v>265.3924131404655</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028581</v>
+        <v>265.3924131404655</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404655</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5467,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028581</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028581</v>
+        <v>415.5090525528012</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,13 +5501,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,10 +5516,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5674,7 +5674,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5698,16 +5698,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>835.4163915387938</v>
       </c>
       <c r="W19" t="n">
         <v>545.9992215018333</v>
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,25 +5932,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,13 +5999,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6163,31 +6163,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6212,49 +6212,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028587</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>730.4517433652466</v>
+        <v>565.420029503087</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749887</v>
+        <v>565.420029503087</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440237</v>
+        <v>471.0642553721226</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>378.9120270711001</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276534</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818938</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>730.4517433652463</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652466</v>
+        <v>565.420029503087</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6938,49 +6938,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982967</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,22 +7163,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7187,7 +7187,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7783,16 +7783,16 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>87.16935584025373</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>369.0893880493729</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>76.43196988338542</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>80.5002137261522</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>199.6230805871095</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.3832975305145</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>103.8548742914424</v>
       </c>
     </row>
     <row r="17">
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>79.43092547709142</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>124.4198406026822</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>124.7054865406958</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338585</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>73.08200834921537</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,7 +24838,7 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>20.21884529571537</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.55667754918247</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774007.7679850446</v>
+        <v>774007.7679850447</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380331</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380337</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672194</v>
@@ -26326,34 +26326,34 @@
         <v>645197.9485672192</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="I2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="J2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="K2" t="n">
-        <v>671256.5266196957</v>
+        <v>671256.5266196956</v>
       </c>
       <c r="L2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="M2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="N2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="O2" t="n">
+        <v>677359.4601380341</v>
+      </c>
+      <c r="P2" t="n">
         <v>677359.4601380335</v>
-      </c>
-      <c r="M2" t="n">
-        <v>677359.460138034</v>
-      </c>
-      <c r="N2" t="n">
-        <v>677359.4601380342</v>
-      </c>
-      <c r="O2" t="n">
-        <v>677359.4601380337</v>
-      </c>
-      <c r="P2" t="n">
-        <v>677359.4601380337</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,25 +26439,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106726</v>
+        <v>40339.23010106727</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26506,7 +26506,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.3649264448</v>
+        <v>-161100.3649264452</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142880998</v>
+        <v>428867.5142880996</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880996</v>
+        <v>428867.5142880993</v>
       </c>
       <c r="E6" t="n">
-        <v>5875.97855473595</v>
+        <v>5778.519428763917</v>
       </c>
       <c r="F6" t="n">
-        <v>531036.0150316318</v>
+        <v>530938.5559056597</v>
       </c>
       <c r="G6" t="n">
-        <v>531036.0150316323</v>
+        <v>530938.5559056604</v>
       </c>
       <c r="H6" t="n">
-        <v>531036.0150316324</v>
+        <v>530938.5559056601</v>
       </c>
       <c r="I6" t="n">
-        <v>531036.0150316322</v>
+        <v>530938.5559056603</v>
       </c>
       <c r="J6" t="n">
-        <v>354612.7958390393</v>
+        <v>354515.3367130668</v>
       </c>
       <c r="K6" t="n">
-        <v>490126.48268556</v>
+        <v>490107.9889476256</v>
       </c>
       <c r="L6" t="n">
-        <v>524708.0526889501</v>
+        <v>524708.0526889503</v>
       </c>
       <c r="M6" t="n">
-        <v>400249.9442559802</v>
+        <v>400249.94425598</v>
       </c>
       <c r="N6" t="n">
-        <v>535050.9594898176</v>
+        <v>535050.9594898173</v>
       </c>
       <c r="O6" t="n">
-        <v>535050.9594898171</v>
+        <v>535050.9594898174</v>
       </c>
       <c r="P6" t="n">
-        <v>490888.3541869715</v>
+        <v>490888.3541869711</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>55.20325662855708</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.92863350108359</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.20325662855711</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.92863350108353</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>97.3677317508842</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>38.52630155726084</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>19.90190336753813</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14.80881508571576</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>52.55328306226744</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>126.3983626790352</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1755097343083</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>51.87038096697614</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.9477942510504</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498796</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>336.4270607962781</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>702.2839614473859</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>369.5330580813618</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>567.6062243483295</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988639</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>283.5253848149101</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112263</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>599.0230052898812</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>406.7164955186342</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
